--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1rn</t>
   </si>
   <si>
     <t>Il1r1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>65.98578416845849</v>
+        <v>0.05931433333333334</v>
       </c>
       <c r="H2">
-        <v>65.98578416845849</v>
+        <v>0.177943</v>
       </c>
       <c r="I2">
-        <v>0.3733373393214089</v>
+        <v>0.0003168644771051668</v>
       </c>
       <c r="J2">
-        <v>0.3733373393214089</v>
+        <v>0.0003173430197568719</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.7181089389729</v>
+        <v>13.37432</v>
       </c>
       <c r="N2">
-        <v>11.7181089389729</v>
+        <v>40.12296</v>
       </c>
       <c r="O2">
-        <v>0.09854515446486724</v>
+        <v>0.1019828318366699</v>
       </c>
       <c r="P2">
-        <v>0.09854515446486724</v>
+        <v>0.1077302617359031</v>
       </c>
       <c r="Q2">
-        <v>773.2286073095499</v>
+        <v>0.7932888745866666</v>
       </c>
       <c r="R2">
-        <v>773.2286073095499</v>
+        <v>7.139599871280001</v>
       </c>
       <c r="S2">
-        <v>0.0367905857709308</v>
+        <v>3.231473668363055E-05</v>
       </c>
       <c r="T2">
-        <v>0.0367905857709308</v>
+        <v>3.418744657846968E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>65.98578416845849</v>
+        <v>0.05931433333333334</v>
       </c>
       <c r="H3">
-        <v>65.98578416845849</v>
+        <v>0.177943</v>
       </c>
       <c r="I3">
-        <v>0.3733373393214089</v>
+        <v>0.0003168644771051668</v>
       </c>
       <c r="J3">
-        <v>0.3733373393214089</v>
+        <v>0.0003173430197568719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.2191089205166</v>
+        <v>96.23965333333335</v>
       </c>
       <c r="N3">
-        <v>88.2191089205166</v>
+        <v>288.71896</v>
       </c>
       <c r="O3">
-        <v>0.7418915253818466</v>
+        <v>0.7338535627914345</v>
       </c>
       <c r="P3">
-        <v>0.7418915253818466</v>
+        <v>0.7752112289052887</v>
       </c>
       <c r="Q3">
-        <v>5821.20708076294</v>
+        <v>5.708390877697779</v>
       </c>
       <c r="R3">
-        <v>5821.20708076294</v>
+        <v>51.37551789928001</v>
       </c>
       <c r="S3">
-        <v>0.2769758081511601</v>
+        <v>0.0002325321254456716</v>
       </c>
       <c r="T3">
-        <v>0.2769758081511601</v>
+        <v>0.00024600787233024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>65.98578416845849</v>
+        <v>0.05931433333333334</v>
       </c>
       <c r="H4">
-        <v>65.98578416845849</v>
+        <v>0.177943</v>
       </c>
       <c r="I4">
-        <v>0.3733373393214089</v>
+        <v>0.0003168644771051668</v>
       </c>
       <c r="J4">
-        <v>0.3733373393214089</v>
+        <v>0.0003173430197568719</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.138146958809842</v>
+        <v>0.1994553333333333</v>
       </c>
       <c r="N4">
-        <v>0.138146958809842</v>
+        <v>0.598366</v>
       </c>
       <c r="O4">
-        <v>0.001161767096181373</v>
+        <v>0.001520901228493132</v>
       </c>
       <c r="P4">
-        <v>0.001161767096181373</v>
+        <v>0.001606614412143705</v>
       </c>
       <c r="Q4">
-        <v>9.11573540755516</v>
+        <v>0.01183056012644444</v>
       </c>
       <c r="R4">
-        <v>9.11573540755516</v>
+        <v>0.106475041138</v>
       </c>
       <c r="S4">
-        <v>0.0004337310365995131</v>
+        <v>4.819195724950821E-07</v>
       </c>
       <c r="T4">
-        <v>0.0004337310365995131</v>
+        <v>5.09847869134595E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>65.98578416845849</v>
+        <v>0.05931433333333334</v>
       </c>
       <c r="H5">
-        <v>65.98578416845849</v>
+        <v>0.177943</v>
       </c>
       <c r="I5">
-        <v>0.3733373393214089</v>
+        <v>0.0003168644771051668</v>
       </c>
       <c r="J5">
-        <v>0.3733373393214089</v>
+        <v>0.0003173430197568719</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.267472483492492</v>
+        <v>0.3399400000000001</v>
       </c>
       <c r="N5">
-        <v>0.267472483492492</v>
+        <v>1.01982</v>
       </c>
       <c r="O5">
-        <v>0.00224934904924852</v>
+        <v>0.002592135065899243</v>
       </c>
       <c r="P5">
-        <v>0.00224934904924852</v>
+        <v>0.002738219601034139</v>
       </c>
       <c r="Q5">
-        <v>17.64938156673715</v>
+        <v>0.02016331447333334</v>
       </c>
       <c r="R5">
-        <v>17.64938156673715</v>
+        <v>0.18146983026</v>
       </c>
       <c r="S5">
-        <v>0.0008397659892515833</v>
+        <v>8.213555222421307E-07</v>
       </c>
       <c r="T5">
-        <v>0.0008397659892515833</v>
+        <v>8.689548769496307E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>65.98578416845849</v>
+        <v>0.05931433333333334</v>
       </c>
       <c r="H6">
-        <v>65.98578416845849</v>
+        <v>0.177943</v>
       </c>
       <c r="I6">
-        <v>0.3733373393214089</v>
+        <v>0.0003168644771051668</v>
       </c>
       <c r="J6">
-        <v>0.3733373393214089</v>
+        <v>0.0003173430197568719</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.5682243592924</v>
+        <v>20.989489</v>
       </c>
       <c r="N6">
-        <v>18.5682243592924</v>
+        <v>41.978978</v>
       </c>
       <c r="O6">
-        <v>0.1561522040078563</v>
+        <v>0.1600505690775031</v>
       </c>
       <c r="P6">
-        <v>0.1561522040078563</v>
+        <v>0.1127136753456305</v>
       </c>
       <c r="Q6">
-        <v>1225.238844963782</v>
+        <v>1.244977547042333</v>
       </c>
       <c r="R6">
-        <v>1225.238844963782</v>
+        <v>7.469865282254</v>
       </c>
       <c r="S6">
-        <v>0.0582974483734669</v>
+        <v>5.071433988112742E-05</v>
       </c>
       <c r="T6">
-        <v>0.0582974483734669</v>
+        <v>3.576889810207806E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>110.759955457791</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H7">
-        <v>110.759955457791</v>
+        <v>1.415431</v>
       </c>
       <c r="I7">
-        <v>0.6266626606785911</v>
+        <v>0.002520468934959191</v>
       </c>
       <c r="J7">
-        <v>0.6266626606785911</v>
+        <v>0.002524275457857229</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7181089389729</v>
+        <v>13.37432</v>
       </c>
       <c r="N7">
-        <v>11.7181089389729</v>
+        <v>40.12296</v>
       </c>
       <c r="O7">
-        <v>0.09854515446486724</v>
+        <v>0.1019828318366699</v>
       </c>
       <c r="P7">
-        <v>0.09854515446486724</v>
+        <v>0.1077302617359031</v>
       </c>
       <c r="Q7">
-        <v>1297.897224130181</v>
+        <v>6.310142377306666</v>
       </c>
       <c r="R7">
-        <v>1297.897224130181</v>
+        <v>56.79128139576</v>
       </c>
       <c r="S7">
-        <v>0.06175456869393645</v>
+        <v>0.0002570445595434935</v>
       </c>
       <c r="T7">
-        <v>0.06175456869393645</v>
+        <v>0.0002719408557684759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>110.759955457791</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H8">
-        <v>110.759955457791</v>
+        <v>1.415431</v>
       </c>
       <c r="I8">
-        <v>0.6266626606785911</v>
+        <v>0.002520468934959191</v>
       </c>
       <c r="J8">
-        <v>0.6266626606785911</v>
+        <v>0.002524275457857229</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.2191089205166</v>
+        <v>96.23965333333335</v>
       </c>
       <c r="N8">
-        <v>88.2191089205166</v>
+        <v>288.71896</v>
       </c>
       <c r="O8">
-        <v>0.7418915253818466</v>
+        <v>0.7338535627914345</v>
       </c>
       <c r="P8">
-        <v>0.7418915253818466</v>
+        <v>0.7752112289052887</v>
       </c>
       <c r="Q8">
-        <v>9771.144574562431</v>
+        <v>45.40686291908445</v>
       </c>
       <c r="R8">
-        <v>9771.144574562431</v>
+        <v>408.66176627176</v>
       </c>
       <c r="S8">
-        <v>0.4649157172306865</v>
+        <v>0.001849655107824935</v>
       </c>
       <c r="T8">
-        <v>0.4649157172306865</v>
+        <v>0.001956846679780962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>110.759955457791</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H9">
-        <v>110.759955457791</v>
+        <v>1.415431</v>
       </c>
       <c r="I9">
-        <v>0.6266626606785911</v>
+        <v>0.002520468934959191</v>
       </c>
       <c r="J9">
-        <v>0.6266626606785911</v>
+        <v>0.002524275457857229</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.138146958809842</v>
+        <v>0.1994553333333333</v>
       </c>
       <c r="N9">
-        <v>0.138146958809842</v>
+        <v>0.598366</v>
       </c>
       <c r="O9">
-        <v>0.001161767096181373</v>
+        <v>0.001520901228493132</v>
       </c>
       <c r="P9">
-        <v>0.001161767096181373</v>
+        <v>0.001606614412143705</v>
       </c>
       <c r="Q9">
-        <v>15.30115100440739</v>
+        <v>0.09410508730511109</v>
       </c>
       <c r="R9">
-        <v>15.30115100440739</v>
+        <v>0.8469457857459999</v>
       </c>
       <c r="S9">
-        <v>0.0007280360595818597</v>
+        <v>3.833384299558209E-06</v>
       </c>
       <c r="T9">
-        <v>0.0007280360595818597</v>
+        <v>4.055537330814073E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>110.759955457791</v>
+        <v>0.4718103333333333</v>
       </c>
       <c r="H10">
-        <v>110.759955457791</v>
+        <v>1.415431</v>
       </c>
       <c r="I10">
-        <v>0.6266626606785911</v>
+        <v>0.002520468934959191</v>
       </c>
       <c r="J10">
-        <v>0.6266626606785911</v>
+        <v>0.002524275457857229</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.267472483492492</v>
+        <v>0.3399400000000001</v>
       </c>
       <c r="N10">
-        <v>0.267472483492492</v>
+        <v>1.01982</v>
       </c>
       <c r="O10">
-        <v>0.00224934904924852</v>
+        <v>0.002592135065899243</v>
       </c>
       <c r="P10">
-        <v>0.00224934904924852</v>
+        <v>0.002738219601034139</v>
       </c>
       <c r="Q10">
-        <v>29.62524035781315</v>
+        <v>0.1603872047133333</v>
       </c>
       <c r="R10">
-        <v>29.62524035781315</v>
+        <v>1.44348484242</v>
       </c>
       <c r="S10">
-        <v>0.001409583059996937</v>
+        <v>6.533395908817437E-06</v>
       </c>
       <c r="T10">
-        <v>0.001409583059996937</v>
+        <v>6.91202053711409E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4718103333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.415431</v>
+      </c>
+      <c r="I11">
+        <v>0.002520468934959191</v>
+      </c>
+      <c r="J11">
+        <v>0.002524275457857229</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.989489</v>
+      </c>
+      <c r="N11">
+        <v>41.978978</v>
+      </c>
+      <c r="O11">
+        <v>0.1600505690775031</v>
+      </c>
+      <c r="P11">
+        <v>0.1127136753456305</v>
+      </c>
+      <c r="Q11">
+        <v>9.903057801586332</v>
+      </c>
+      <c r="R11">
+        <v>59.41834680951799</v>
+      </c>
+      <c r="S11">
+        <v>0.0004034024873823868</v>
+      </c>
+      <c r="T11">
+        <v>0.0002845203644398624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>73.34487800000001</v>
+      </c>
+      <c r="H12">
+        <v>220.034634</v>
+      </c>
+      <c r="I12">
+        <v>0.3918173754934826</v>
+      </c>
+      <c r="J12">
+        <v>0.3924091153046654</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>13.37432</v>
+      </c>
+      <c r="N12">
+        <v>40.12296</v>
+      </c>
+      <c r="O12">
+        <v>0.1019828318366699</v>
+      </c>
+      <c r="P12">
+        <v>0.1077302617359031</v>
+      </c>
+      <c r="Q12">
+        <v>980.9378687329601</v>
+      </c>
+      <c r="R12">
+        <v>8828.440818596642</v>
+      </c>
+      <c r="S12">
+        <v>0.03995864551563716</v>
+      </c>
+      <c r="T12">
+        <v>0.04227433669932579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>73.34487800000001</v>
+      </c>
+      <c r="H13">
+        <v>220.034634</v>
+      </c>
+      <c r="I13">
+        <v>0.3918173754934826</v>
+      </c>
+      <c r="J13">
+        <v>0.3924091153046654</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>96.23965333333335</v>
+      </c>
+      <c r="N13">
+        <v>288.71896</v>
+      </c>
+      <c r="O13">
+        <v>0.7338535627914345</v>
+      </c>
+      <c r="P13">
+        <v>0.7752112289052887</v>
+      </c>
+      <c r="Q13">
+        <v>7058.685632495629</v>
+      </c>
+      <c r="R13">
+        <v>63528.17069246066</v>
+      </c>
+      <c r="S13">
+        <v>0.2875365769694815</v>
+      </c>
+      <c r="T13">
+        <v>0.3041999525089668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>73.34487800000001</v>
+      </c>
+      <c r="H14">
+        <v>220.034634</v>
+      </c>
+      <c r="I14">
+        <v>0.3918173754934826</v>
+      </c>
+      <c r="J14">
+        <v>0.3924091153046654</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1994553333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.598366</v>
+      </c>
+      <c r="O14">
+        <v>0.001520901228493132</v>
+      </c>
+      <c r="P14">
+        <v>0.001606614412143705</v>
+      </c>
+      <c r="Q14">
+        <v>14.62902708978267</v>
+      </c>
+      <c r="R14">
+        <v>131.661243808044</v>
+      </c>
+      <c r="S14">
+        <v>0.0005959155277329924</v>
+      </c>
+      <c r="T14">
+        <v>0.0006304501401050365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>110.759955457791</v>
-      </c>
-      <c r="H11">
-        <v>110.759955457791</v>
-      </c>
-      <c r="I11">
-        <v>0.6266626606785911</v>
-      </c>
-      <c r="J11">
-        <v>0.6266626606785911</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>18.5682243592924</v>
-      </c>
-      <c r="N11">
-        <v>18.5682243592924</v>
-      </c>
-      <c r="O11">
-        <v>0.1561522040078563</v>
-      </c>
-      <c r="P11">
-        <v>0.1561522040078563</v>
-      </c>
-      <c r="Q11">
-        <v>2056.615702965496</v>
-      </c>
-      <c r="R11">
-        <v>2056.615702965496</v>
-      </c>
-      <c r="S11">
-        <v>0.09785475563438936</v>
-      </c>
-      <c r="T11">
-        <v>0.09785475563438936</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>73.34487800000001</v>
+      </c>
+      <c r="H15">
+        <v>220.034634</v>
+      </c>
+      <c r="I15">
+        <v>0.3918173754934826</v>
+      </c>
+      <c r="J15">
+        <v>0.3924091153046654</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3399400000000001</v>
+      </c>
+      <c r="N15">
+        <v>1.01982</v>
+      </c>
+      <c r="O15">
+        <v>0.002592135065899243</v>
+      </c>
+      <c r="P15">
+        <v>0.002738219601034139</v>
+      </c>
+      <c r="Q15">
+        <v>24.93285782732001</v>
+      </c>
+      <c r="R15">
+        <v>224.3957204458801</v>
+      </c>
+      <c r="S15">
+        <v>0.001015643558445267</v>
+      </c>
+      <c r="T15">
+        <v>0.0010745023311517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>73.34487800000001</v>
+      </c>
+      <c r="H16">
+        <v>220.034634</v>
+      </c>
+      <c r="I16">
+        <v>0.3918173754934826</v>
+      </c>
+      <c r="J16">
+        <v>0.3924091153046654</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.989489</v>
+      </c>
+      <c r="N16">
+        <v>41.978978</v>
+      </c>
+      <c r="O16">
+        <v>0.1600505690775031</v>
+      </c>
+      <c r="P16">
+        <v>0.1127136753456305</v>
+      </c>
+      <c r="Q16">
+        <v>1539.471509987342</v>
+      </c>
+      <c r="R16">
+        <v>9236.829059924054</v>
+      </c>
+      <c r="S16">
+        <v>0.06271059392218561</v>
+      </c>
+      <c r="T16">
+        <v>0.04422987362511614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>112.468651</v>
+      </c>
+      <c r="H17">
+        <v>337.405953</v>
+      </c>
+      <c r="I17">
+        <v>0.6008213915102898</v>
+      </c>
+      <c r="J17">
+        <v>0.6017287783670343</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.37432</v>
+      </c>
+      <c r="N17">
+        <v>40.12296</v>
+      </c>
+      <c r="O17">
+        <v>0.1019828318366699</v>
+      </c>
+      <c r="P17">
+        <v>0.1077302617359031</v>
+      </c>
+      <c r="Q17">
+        <v>1504.19172844232</v>
+      </c>
+      <c r="R17">
+        <v>13537.72555598088</v>
+      </c>
+      <c r="S17">
+        <v>0.06127346693426786</v>
+      </c>
+      <c r="T17">
+        <v>0.06482439878750583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>112.468651</v>
+      </c>
+      <c r="H18">
+        <v>337.405953</v>
+      </c>
+      <c r="I18">
+        <v>0.6008213915102898</v>
+      </c>
+      <c r="J18">
+        <v>0.6017287783670343</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>96.23965333333335</v>
+      </c>
+      <c r="N18">
+        <v>288.71896</v>
+      </c>
+      <c r="O18">
+        <v>0.7338535627914345</v>
+      </c>
+      <c r="P18">
+        <v>0.7752112289052887</v>
+      </c>
+      <c r="Q18">
+        <v>10823.94398310766</v>
+      </c>
+      <c r="R18">
+        <v>97415.49584796889</v>
+      </c>
+      <c r="S18">
+        <v>0.4409149187611335</v>
+      </c>
+      <c r="T18">
+        <v>0.4664669057455867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>112.468651</v>
+      </c>
+      <c r="H19">
+        <v>337.405953</v>
+      </c>
+      <c r="I19">
+        <v>0.6008213915102898</v>
+      </c>
+      <c r="J19">
+        <v>0.6017287783670343</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1994553333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.598366</v>
+      </c>
+      <c r="O19">
+        <v>0.001520901228493132</v>
+      </c>
+      <c r="P19">
+        <v>0.001606614412143705</v>
+      </c>
+      <c r="Q19">
+        <v>22.43247227475533</v>
+      </c>
+      <c r="R19">
+        <v>201.892250472798</v>
+      </c>
+      <c r="S19">
+        <v>0.0009137899924529527</v>
+      </c>
+      <c r="T19">
+        <v>0.0009667461275261026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>112.468651</v>
+      </c>
+      <c r="H20">
+        <v>337.405953</v>
+      </c>
+      <c r="I20">
+        <v>0.6008213915102898</v>
+      </c>
+      <c r="J20">
+        <v>0.6017287783670343</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3399400000000001</v>
+      </c>
+      <c r="N20">
+        <v>1.01982</v>
+      </c>
+      <c r="O20">
+        <v>0.002592135065899243</v>
+      </c>
+      <c r="P20">
+        <v>0.002738219601034139</v>
+      </c>
+      <c r="Q20">
+        <v>38.23259322094001</v>
+      </c>
+      <c r="R20">
+        <v>344.0933389884601</v>
+      </c>
+      <c r="S20">
+        <v>0.0015574101972762</v>
+      </c>
+      <c r="T20">
+        <v>0.001647665535430941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>112.468651</v>
+      </c>
+      <c r="H21">
+        <v>337.405953</v>
+      </c>
+      <c r="I21">
+        <v>0.6008213915102898</v>
+      </c>
+      <c r="J21">
+        <v>0.6017287783670343</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.989489</v>
+      </c>
+      <c r="N21">
+        <v>41.978978</v>
+      </c>
+      <c r="O21">
+        <v>0.1600505690775031</v>
+      </c>
+      <c r="P21">
+        <v>0.1127136753456305</v>
+      </c>
+      <c r="Q21">
+        <v>2360.659513009339</v>
+      </c>
+      <c r="R21">
+        <v>14163.95707805603</v>
+      </c>
+      <c r="S21">
+        <v>0.09616180562515921</v>
+      </c>
+      <c r="T21">
+        <v>0.06782306217098474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.8468355</v>
+      </c>
+      <c r="H22">
+        <v>1.693671</v>
+      </c>
+      <c r="I22">
+        <v>0.004523899584163341</v>
+      </c>
+      <c r="J22">
+        <v>0.003020487850686124</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.37432</v>
+      </c>
+      <c r="N22">
+        <v>40.12296</v>
+      </c>
+      <c r="O22">
+        <v>0.1019828318366699</v>
+      </c>
+      <c r="P22">
+        <v>0.1077302617359031</v>
+      </c>
+      <c r="Q22">
+        <v>11.32584896436</v>
+      </c>
+      <c r="R22">
+        <v>67.95509378615999</v>
+      </c>
+      <c r="S22">
+        <v>0.0004613600905377106</v>
+      </c>
+      <c r="T22">
+        <v>0.0003253979467245315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.8468355</v>
+      </c>
+      <c r="H23">
+        <v>1.693671</v>
+      </c>
+      <c r="I23">
+        <v>0.004523899584163341</v>
+      </c>
+      <c r="J23">
+        <v>0.003020487850686124</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>96.23965333333335</v>
+      </c>
+      <c r="N23">
+        <v>288.71896</v>
+      </c>
+      <c r="O23">
+        <v>0.7338535627914345</v>
+      </c>
+      <c r="P23">
+        <v>0.7752112289052887</v>
+      </c>
+      <c r="Q23">
+        <v>81.49915495036001</v>
+      </c>
+      <c r="R23">
+        <v>488.9949297021601</v>
+      </c>
+      <c r="S23">
+        <v>0.003319879827548957</v>
+      </c>
+      <c r="T23">
+        <v>0.002341516098623884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.8468355</v>
+      </c>
+      <c r="H24">
+        <v>1.693671</v>
+      </c>
+      <c r="I24">
+        <v>0.004523899584163341</v>
+      </c>
+      <c r="J24">
+        <v>0.003020487850686124</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1994553333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.598366</v>
+      </c>
+      <c r="O24">
+        <v>0.001520901228493132</v>
+      </c>
+      <c r="P24">
+        <v>0.001606614412143705</v>
+      </c>
+      <c r="Q24">
+        <v>0.168905856931</v>
+      </c>
+      <c r="R24">
+        <v>1.013435141586</v>
+      </c>
+      <c r="S24">
+        <v>6.880404435133594E-06</v>
+      </c>
+      <c r="T24">
+        <v>4.85275931261729E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.8468355</v>
+      </c>
+      <c r="H25">
+        <v>1.693671</v>
+      </c>
+      <c r="I25">
+        <v>0.004523899584163341</v>
+      </c>
+      <c r="J25">
+        <v>0.003020487850686124</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3399400000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.01982</v>
+      </c>
+      <c r="O25">
+        <v>0.002592135065899243</v>
+      </c>
+      <c r="P25">
+        <v>0.002738219601034139</v>
+      </c>
+      <c r="Q25">
+        <v>0.2878732598700001</v>
+      </c>
+      <c r="R25">
+        <v>1.72723955922</v>
+      </c>
+      <c r="S25">
+        <v>1.17265587467168E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.270759037434221E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.8468355</v>
+      </c>
+      <c r="H26">
+        <v>1.693671</v>
+      </c>
+      <c r="I26">
+        <v>0.004523899584163341</v>
+      </c>
+      <c r="J26">
+        <v>0.003020487850686124</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.989489</v>
+      </c>
+      <c r="N26">
+        <v>41.978978</v>
+      </c>
+      <c r="O26">
+        <v>0.1600505690775031</v>
+      </c>
+      <c r="P26">
+        <v>0.1127136753456305</v>
+      </c>
+      <c r="Q26">
+        <v>17.7746444120595</v>
+      </c>
+      <c r="R26">
+        <v>71.09857764823799</v>
+      </c>
+      <c r="S26">
+        <v>0.0007240527028948225</v>
+      </c>
+      <c r="T26">
+        <v>0.000340450286987657</v>
       </c>
     </row>
   </sheetData>
